--- a/simulations/cleaned_inclusion_exclusion/Hall_2012 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Hall_2012 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="D2">
-        <v>223.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>38</v>
       </c>
       <c r="C3">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>107.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>203</v>
       </c>
       <c r="C5">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>252.5</v>
+        <v>206.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>54</v>
       </c>
       <c r="C6">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>137.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>116</v>
       </c>
       <c r="C8">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>103</v>
       </c>
       <c r="C9">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>159.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>141</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>209.5</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>189</v>
       </c>
       <c r="C11">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="D11">
-        <v>261</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>170</v>
       </c>
       <c r="C12">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>378</v>
       </c>
       <c r="C13">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="D13">
-        <v>422.5</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D14">
-        <v>193.5</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>197</v>
       </c>
       <c r="C15">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="D15">
-        <v>267.5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>92</v>
       </c>
       <c r="C16">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="D16">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>86</v>
       </c>
       <c r="C17">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>157.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>73</v>
       </c>
       <c r="C18">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>117.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>111</v>
       </c>
       <c r="C19">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>187</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>81</v>
       </c>
       <c r="C20">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="D20">
-        <v>172.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>143</v>
       </c>
       <c r="C21">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="D21">
-        <v>216</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>442</v>
       </c>
       <c r="C22">
-        <v>546</v>
+        <v>469</v>
       </c>
       <c r="D22">
-        <v>494</v>
+        <v>455.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>219</v>
       </c>
       <c r="C23">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="D23">
-        <v>288</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>176</v>
       </c>
       <c r="C24">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="D24">
-        <v>231.5</v>
+        <v>176.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>124.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>158.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>149.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>179</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>193</v>
       </c>
       <c r="C29">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="D29">
-        <v>259.5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>106.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>107.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>273</v>
       </c>
       <c r="C32">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="D32">
-        <v>346</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>133.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>107</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>107.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>125</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>95</v>
       </c>
       <c r="C37">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>164</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="D39">
-        <v>112.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>98</v>
       </c>
       <c r="C40">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="D40">
-        <v>164</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>24</v>
       </c>
       <c r="C41">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>127</v>
       </c>
       <c r="C42">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="D42">
-        <v>189</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>177</v>
       </c>
       <c r="C43">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="D43">
-        <v>231.5</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>120.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>26</v>
       </c>
       <c r="C45">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>72</v>
       </c>
       <c r="C46">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D46">
-        <v>134.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="C47">
-        <v>347</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>107</v>
       </c>
       <c r="C48">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D48">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,10 +1072,10 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>42</v>
       </c>
       <c r="C50">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>110.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>35</v>
       </c>
       <c r="C51">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>108.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>104</v>
       </c>
       <c r="C52">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D52">
-        <v>167.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,10 +1128,10 @@
         <v>138</v>
       </c>
       <c r="C53">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="D53">
-        <v>205</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>180</v>
       </c>
       <c r="C54">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="D54">
-        <v>250</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>405</v>
       </c>
       <c r="C55">
-        <v>533</v>
+        <v>397</v>
       </c>
       <c r="D55">
-        <v>469</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>156</v>
       </c>
       <c r="C56">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="D56">
-        <v>217.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>36</v>
       </c>
       <c r="C57">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="D57">
-        <v>104</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>112.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>124.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>43</v>
       </c>
       <c r="C60">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>113</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>78</v>
       </c>
       <c r="C61">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="D61">
-        <v>145.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>33</v>
       </c>
       <c r="C62">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>104</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>47</v>
       </c>
       <c r="C63">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="D64">
-        <v>179</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>103.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,10 +1310,10 @@
         <v>128</v>
       </c>
       <c r="C66">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="D66">
-        <v>186</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>171</v>
       </c>
       <c r="C67">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="D67">
-        <v>246.5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,10 +1338,10 @@
         <v>168</v>
       </c>
       <c r="C68">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="D68">
-        <v>240</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,10 +1352,10 @@
         <v>66</v>
       </c>
       <c r="C69">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="D69">
-        <v>134.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,10 +1366,10 @@
         <v>27</v>
       </c>
       <c r="C70">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D70">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>5428</v>
       </c>
       <c r="C71">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>25</v>
       </c>
       <c r="C72">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>99</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>1649</v>
       </c>
       <c r="C73">
-        <v>1820</v>
+        <v>1720</v>
       </c>
       <c r="D73">
-        <v>1734.5</v>
+        <v>1684.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="C74">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="D74">
-        <v>188.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>102</v>
       </c>
       <c r="C75">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D75">
-        <v>167</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,10 +1447,10 @@
         <v>129</v>
       </c>
       <c r="C76">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="D76">
-        <v>194.5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>165</v>
       </c>
       <c r="C77">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="D77">
-        <v>234.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +1475,10 @@
         <v>28</v>
       </c>
       <c r="C78">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>124</v>
       </c>
       <c r="C79">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="D79">
-        <v>182.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>151</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>199</v>
       </c>
       <c r="C81">
-        <v>378</v>
+        <v>216</v>
       </c>
       <c r="D81">
-        <v>288.5</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,10 +1531,10 @@
         <v>184</v>
       </c>
       <c r="C82">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="D82">
-        <v>251</v>
+        <v>182.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1545,10 +1545,10 @@
         <v>112</v>
       </c>
       <c r="C83">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="D83">
-        <v>173</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>39</v>
       </c>
       <c r="C84">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="D84">
-        <v>108.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1573,10 +1573,10 @@
         <v>133</v>
       </c>
       <c r="C85">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="D85">
-        <v>192.5</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>137</v>
       </c>
       <c r="C86">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="D86">
-        <v>203</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>173</v>
       </c>
       <c r="C87">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="D87">
-        <v>224.5</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>140</v>
       </c>
       <c r="C88">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="D88">
-        <v>207</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +1629,10 @@
         <v>300</v>
       </c>
       <c r="C89">
-        <v>426</v>
+        <v>295</v>
       </c>
       <c r="D89">
-        <v>363</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D90">
-        <v>111.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>113</v>
       </c>
       <c r="C91">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="D91">
-        <v>179</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1671,10 +1671,10 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="D92">
-        <v>162.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +1685,10 @@
         <v>155</v>
       </c>
       <c r="C93">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="D93">
-        <v>228</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D94">
-        <v>117.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>181</v>
       </c>
       <c r="C95">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="D95">
-        <v>247.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +1727,10 @@
         <v>122</v>
       </c>
       <c r="C96">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="D96">
-        <v>182.5</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>185</v>
       </c>
       <c r="C97">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="D97">
-        <v>252</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,10 +1755,10 @@
         <v>88</v>
       </c>
       <c r="C98">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="D98">
-        <v>153</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>151</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1783,10 +1783,10 @@
         <v>29</v>
       </c>
       <c r="C100">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="D100">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>67</v>
       </c>
       <c r="C101">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D101">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1811,10 +1811,10 @@
         <v>208</v>
       </c>
       <c r="C102">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="D102">
-        <v>184.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1825,10 +1825,10 @@
         <v>169</v>
       </c>
       <c r="C103">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="D103">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1839,10 +1839,10 @@
         <v>233</v>
       </c>
       <c r="C104">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="D104">
-        <v>266</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>141.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1867,7 +1867,7 @@
         <v>123.6601941747573</v>
       </c>
       <c r="C106">
-        <v>267.5096153846154</v>
+        <v>122.5961538461538</v>
       </c>
     </row>
   </sheetData>
